--- a/02_bases_procesadas/02_fichas_grupos_pib.xlsx
+++ b/02_bases_procesadas/02_fichas_grupos_pib.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">grupo</t>
   </si>
@@ -29,13 +29,13 @@
     <t xml:space="preserve">Entidades</t>
   </si>
   <si>
-    <t xml:space="preserve">AGS, BC, BCS, COAH, CHIH, CDMX, JAL, NL, QRO, SON</t>
+    <t xml:space="preserve">AGS, BC, BCS, COAH, COL, CHIH, CDMX, JAL, NL, QRO, SON</t>
   </si>
   <si>
     <t xml:space="preserve">IPS promedio</t>
   </si>
   <si>
-    <t xml:space="preserve">68.9092617388729</t>
+    <t xml:space="preserve">71.3280496342684</t>
   </si>
   <si>
     <t xml:space="preserve">Entidad con mejor IPS</t>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">IPS</t>
   </si>
   <si>
-    <t xml:space="preserve">73.0806425517831</t>
+    <t xml:space="preserve">78.8714017370016</t>
   </si>
   <si>
     <t xml:space="preserve">Ranking</t>
@@ -59,91 +59,67 @@
     <t xml:space="preserve">Entidad con peor IPS</t>
   </si>
   <si>
-    <t xml:space="preserve">CHIH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.7802687092167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total de habitantes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41482466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Porcentaje de habitantes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.323099115198783</t>
+    <t xml:space="preserve">COL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.1240491242779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
   </si>
   <si>
     <t xml:space="preserve">PIB medio</t>
   </si>
   <si>
-    <t xml:space="preserve">CAMP, COL, DGO, GTO, MOR, QROO, SLP, SIN, TAB, TAM, YUC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.7976072276715</t>
+    <t xml:space="preserve">CAMP, DGO, GTO, QROO, SLP, SIN, TAB, TAM, YUC, ZAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.0796363440689</t>
   </si>
   <si>
     <t xml:space="preserve">SIN</t>
   </si>
   <si>
-    <t xml:space="preserve">66.7594974654964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
+    <t xml:space="preserve">71.4478799728546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
   </si>
   <si>
     <t xml:space="preserve">TAB</t>
   </si>
   <si>
-    <t xml:space="preserve">58.2199603501824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28296926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220399427397721</t>
+    <t xml:space="preserve">60.7262925694329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
   </si>
   <si>
     <t xml:space="preserve">PIB bajo</t>
   </si>
   <si>
-    <t xml:space="preserve">CHPS, GRO, HGO, MEX, MICH, NAY, OAX, PUE, TLAX, VER, ZAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.0052620305214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TLAX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.9920934972368</t>
+    <t xml:space="preserve">CHPS, GRO, HGO, MEX, MICH, MOR, NAY, OAX, PUE, TLAX, VER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.6603650699118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.5316902893287</t>
   </si>
   <si>
     <t xml:space="preserve">14</t>
   </si>
   <si>
-    <t xml:space="preserve">OAX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.9353232791602</t>
+    <t xml:space="preserve">GRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.8641172748225</t>
   </si>
   <si>
     <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58609898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.456501457403495</t>
   </si>
 </sst>
 </file>
@@ -576,10 +552,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
@@ -587,233 +563,167 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
         <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
         <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
         <v>33</v>
-      </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/02_bases_procesadas/02_fichas_grupos_pib.xlsx
+++ b/02_bases_procesadas/02_fichas_grupos_pib.xlsx
@@ -29,13 +29,13 @@
     <t xml:space="preserve">Entidades</t>
   </si>
   <si>
-    <t xml:space="preserve">AGS, BC, BCS, COAH, COL, CHIH, CDMX, JAL, NL, QRO, SON</t>
+    <t xml:space="preserve">AGS, BC, BCS, COAH, CHIH, CDMX, JAL, NL, QRO, SON, TAM</t>
   </si>
   <si>
     <t xml:space="preserve">IPS promedio</t>
   </si>
   <si>
-    <t xml:space="preserve">71.3280496342684</t>
+    <t xml:space="preserve">70.7343867505797</t>
   </si>
   <si>
     <t xml:space="preserve">Entidad con mejor IPS</t>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">IPS</t>
   </si>
   <si>
-    <t xml:space="preserve">78.8714017370016</t>
+    <t xml:space="preserve">74.9385802709073</t>
   </si>
   <si>
     <t xml:space="preserve">Ranking</t>
@@ -59,28 +59,28 @@
     <t xml:space="preserve">Entidad con peor IPS</t>
   </si>
   <si>
-    <t xml:space="preserve">COL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.1240491242779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
+    <t xml:space="preserve">CHIH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.473954394105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
   </si>
   <si>
     <t xml:space="preserve">PIB medio</t>
   </si>
   <si>
-    <t xml:space="preserve">CAMP, DGO, GTO, QROO, SLP, SIN, TAB, TAM, YUC, ZAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.0796363440689</t>
+    <t xml:space="preserve">CAMP, COL, DGO, GTO, HGO, QROO, SLP, SIN, TAB, YUC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.2849030843709</t>
   </si>
   <si>
     <t xml:space="preserve">SIN</t>
   </si>
   <si>
-    <t xml:space="preserve">71.4478799728546</t>
+    <t xml:space="preserve">70.9390399478515</t>
   </si>
   <si>
     <t xml:space="preserve">7</t>
@@ -89,7 +89,7 @@
     <t xml:space="preserve">TAB</t>
   </si>
   <si>
-    <t xml:space="preserve">60.7262925694329</t>
+    <t xml:space="preserve">60.3750514309153</t>
   </si>
   <si>
     <t xml:space="preserve">28</t>
@@ -98,25 +98,25 @@
     <t xml:space="preserve">PIB bajo</t>
   </si>
   <si>
-    <t xml:space="preserve">CHPS, GRO, HGO, MEX, MICH, MOR, NAY, OAX, PUE, TLAX, VER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.6603650699118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.5316902893287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
+    <t xml:space="preserve">CHPS, GRO, MEX, MICH, MOR, NAY, OAX, PUE, TLAX, VER, ZAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.1855498904333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.8702420841071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
   </si>
   <si>
     <t xml:space="preserve">GRO</t>
   </si>
   <si>
-    <t xml:space="preserve">50.8641172748225</t>
+    <t xml:space="preserve">53.7901001119088</t>
   </si>
   <si>
     <t xml:space="preserve">32</t>
